--- a/作成リスト_テクニック.xlsx
+++ b/作成リスト_テクニック.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -234,10 +234,6 @@
   </si>
   <si>
     <t>_Lose</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アニメーション(テクニック)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -782,72 +778,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,13 +785,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,7 +1142,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1168,56 +1164,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="36" t="str">
+        <f>CONCATENATE("アニメーション(テクニック)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
+        <v>アニメーション(テクニック)：0／54</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="17" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
         <v>0／18</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="17" t="str">
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
         <v>0／18</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="17" t="str">
         <f>CONCATENATE(COUNTIF(K3:K79,"〇"),"／",COUNTA(J3:J79))</f>
@@ -1225,16 +1222,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>CONCATENATE($F$2,M3)</f>
@@ -1257,14 +1254,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="18" t="str">
         <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,M4)</f>
@@ -1287,14 +1284,14 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29"/>
-      <c r="B5" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1317,13 +1314,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="29"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Guard</v>
@@ -1345,13 +1342,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="45"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Guard_Break</v>
@@ -1373,14 +1370,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="29"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1403,14 +1400,14 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1433,14 +1430,14 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="29"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1463,13 +1460,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29"/>
-      <c r="B11" s="40" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Stun</v>
@@ -1491,14 +1488,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="29"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="45" t="s">
-        <v>48</v>
+      <c r="C12" s="35"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1521,14 +1518,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1551,15 +1548,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Rolling</v>
@@ -1581,18 +1578,18 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29"/>
-      <c r="B15" s="43" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>48</v>
+      <c r="E15" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="F15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1615,13 +1612,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Attack_Ground_M</v>
@@ -1643,14 +1640,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="30"/>
       <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>48</v>
+      <c r="E17" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="F17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1675,11 +1672,11 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Sword_Attack_Special</v>
@@ -1701,16 +1698,16 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="44" t="s">
-        <v>48</v>
+      <c r="C19" s="31"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1734,13 +1731,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="30"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="44" t="s">
-        <v>48</v>
+      <c r="C20" s="31"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1824,6 +1821,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A19:A20"/>
@@ -1840,11 +1842,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/作成リスト_テクニック.xlsx
+++ b/作成リスト_テクニック.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>チェック欄</t>
     <rPh sb="4" eb="5">
@@ -247,18 +247,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名(ランス)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sword</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lance</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1139,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A18"/>
@@ -1155,24 +1144,22 @@
     <col min="7" max="7" width="7.9140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.58203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.9140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.58203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="str">
-        <f>CONCATENATE("アニメーション(テクニック)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇"),COUNTIF(K3:K100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100,J3:J100)))</f>
-        <v>アニメーション(テクニック)：0／54</v>
+        <f>CONCATENATE("アニメーション(スピード)：",SUM(COUNTIF(G3:G100,"〇"),COUNTIF(I3:I100,"〇")),"／",SUM(COUNTA(F3:F100,H3:H100)))</f>
+        <v>アニメーション(スピード)：0／36</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
       <c r="D1" s="38"/>
       <c r="E1" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>40</v>
@@ -1181,26 +1168,20 @@
         <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
       <c r="D2" s="41"/>
       <c r="E2" s="26"/>
       <c r="F2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="17" t="str">
         <f>CONCATENATE(COUNTIF(G3:G79,"〇"),"／",COUNTA(F3:F79))</f>
@@ -1213,15 +1194,8 @@
         <f>CONCATENATE(COUNTIF(I3:I79,"〇"),"／",COUNTA(H3:H79))</f>
         <v>0／18</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="17" t="str">
-        <f>CONCATENATE(COUNTIF(K3:K79,"〇"),"／",COUNTA(J3:J79))</f>
-        <v>0／18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
@@ -1231,29 +1205,24 @@
       <c r="C3" s="44"/>
       <c r="D3" s="45"/>
       <c r="E3" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8" t="str">
-        <f>CONCATENATE($F$2,M3)</f>
+        <f t="shared" ref="F3:F20" si="0">CONCATENATE($F$2,K3)</f>
         <v>Sword_Neutral</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="8" t="str">
-        <f>CONCATENATE($H$2,M3)</f>
-        <v>Lance_Neutral</v>
+        <f>CONCATENATE($H$2,K3)</f>
+        <v>Mace_Neutral</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="8" t="str">
-        <f>CONCATENATE($J$2,M3)</f>
-        <v>Mace_Neutral</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="1" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="34"/>
       <c r="B4" s="27" t="s">
         <v>4</v>
@@ -1261,37 +1230,32 @@
       <c r="C4" s="31"/>
       <c r="D4" s="28"/>
       <c r="E4" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f t="shared" ref="F4:F20" si="0">CONCATENATE($F$2,M4)</f>
+        <f t="shared" si="0"/>
         <v>Sword_Move</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="18" t="str">
-        <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,M4)</f>
-        <v>Lance_Move</v>
+        <f t="shared" ref="H4:H20" si="1">CONCATENATE($H$2,K4)</f>
+        <v>Mace_Move</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="18" t="str">
-        <f t="shared" ref="J4:J20" si="2">CONCATENATE($J$2,M4)</f>
-        <v>Mace_Move</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="1" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="34"/>
       <c r="B5" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="28"/>
       <c r="E5" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1300,20 +1264,15 @@
       <c r="G5" s="4"/>
       <c r="H5" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Jump</v>
+        <v>Mace_Jump</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Jump</v>
-      </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="1" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="34"/>
       <c r="B6" s="32" t="s">
         <v>15</v>
@@ -1328,20 +1287,15 @@
       <c r="G6" s="4"/>
       <c r="H6" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Guard</v>
+        <v>Mace_Guard</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Guard</v>
-      </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="1" t="s">
+      <c r="J6" s="13"/>
+      <c r="K6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="34"/>
       <c r="B7" s="32" t="s">
         <v>16</v>
@@ -1356,20 +1310,15 @@
       <c r="G7" s="4"/>
       <c r="H7" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Guard_Break</v>
+        <v>Mace_Guard_Break</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Guard_Break</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="1" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="34"/>
       <c r="B8" s="32" t="s">
         <v>17</v>
@@ -1377,7 +1326,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="33"/>
       <c r="E8" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1386,20 +1335,15 @@
       <c r="G8" s="4"/>
       <c r="H8" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Damage</v>
+        <v>Mace_Damage</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Damage</v>
-      </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="34"/>
       <c r="B9" s="32" t="s">
         <v>18</v>
@@ -1407,7 +1351,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="33"/>
       <c r="E9" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1416,20 +1360,15 @@
       <c r="G9" s="4"/>
       <c r="H9" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Burst</v>
+        <v>Mace_Burst</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Burst</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="1" t="s">
+      <c r="J9" s="13"/>
+      <c r="K9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="34"/>
       <c r="B10" s="32" t="s">
         <v>22</v>
@@ -1437,7 +1376,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="33"/>
       <c r="E10" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1446,20 +1385,15 @@
       <c r="G10" s="4"/>
       <c r="H10" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Down</v>
+        <v>Mace_Down</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Down</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="1" t="s">
+      <c r="J10" s="13"/>
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="34"/>
       <c r="B11" s="32" t="s">
         <v>19</v>
@@ -1474,20 +1408,15 @@
       <c r="G11" s="4"/>
       <c r="H11" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Stun</v>
+        <v>Mace_Stun</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Stun</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="1" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="34"/>
       <c r="B12" s="32" t="s">
         <v>20</v>
@@ -1495,7 +1424,7 @@
       <c r="C12" s="35"/>
       <c r="D12" s="33"/>
       <c r="E12" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1504,20 +1433,15 @@
       <c r="G12" s="4"/>
       <c r="H12" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Wake_Up</v>
+        <v>Mace_Wake_Up</v>
       </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Wake_Up</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="1" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="34"/>
       <c r="B13" s="46" t="s">
         <v>21</v>
@@ -1525,7 +1449,7 @@
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1534,20 +1458,15 @@
       <c r="G13" s="5"/>
       <c r="H13" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Revival</v>
+        <v>Mace_Revival</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Revival</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="1" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="34"/>
       <c r="B14" s="19" t="s">
         <v>23</v>
@@ -1564,20 +1483,15 @@
       <c r="G14" s="5"/>
       <c r="H14" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Rolling</v>
+        <v>Mace_Rolling</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Rolling</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="1" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="34"/>
       <c r="B15" s="29" t="s">
         <v>26</v>
@@ -1589,7 +1503,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1598,20 +1512,15 @@
       <c r="G15" s="5"/>
       <c r="H15" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Attack_Ground_L</v>
+        <v>Mace_Attack_Ground_L</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Attack_Ground_L</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="1" t="s">
+      <c r="J15" s="13"/>
+      <c r="K15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -1626,20 +1535,15 @@
       <c r="G16" s="5"/>
       <c r="H16" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Attack_Ground_M</v>
+        <v>Mace_Attack_Ground_M</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Attack_Ground_M</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="1" t="s">
+      <c r="J16" s="13"/>
+      <c r="K16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="30"/>
@@ -1647,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1656,24 +1560,19 @@
       <c r="G17" s="5"/>
       <c r="H17" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Attack_Charge</v>
+        <v>Mace_Attack_Charge</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Attack_Charge</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="1" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="22"/>
@@ -1684,20 +1583,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Attack_Special</v>
+        <v>Mace_Attack_Special</v>
       </c>
       <c r="I18" s="16"/>
-      <c r="J18" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Attack_Special</v>
-      </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="1" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29" t="s">
         <v>35</v>
       </c>
@@ -1707,7 +1601,7 @@
       <c r="C19" s="31"/>
       <c r="D19" s="28"/>
       <c r="E19" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1716,20 +1610,15 @@
       <c r="G19" s="16"/>
       <c r="H19" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Win</v>
+        <v>Mace_Win</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Win</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="1" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="30"/>
       <c r="B20" s="27" t="s">
         <v>37</v>
@@ -1737,7 +1626,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="28"/>
       <c r="E20" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F20" s="18" t="str">
         <f t="shared" si="0"/>
@@ -1746,20 +1635,15 @@
       <c r="G20" s="16"/>
       <c r="H20" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>Lance_Lose</v>
+        <v>Mace_Lose</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>Mace_Lose</v>
-      </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="1" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1769,11 +1653,9 @@
       <c r="G21" s="16"/>
       <c r="H21" s="8"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1783,11 +1665,9 @@
       <c r="G22" s="16"/>
       <c r="H22" s="8"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1797,11 +1677,9 @@
       <c r="G23" s="16"/>
       <c r="H23" s="8"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1811,11 +1689,9 @@
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
